--- a/va-vdl-2021-11.xlsx
+++ b/va-vdl-2021-11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/git/rafael5/cloudvista/cloudvista.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/git/rafael5/cloudvista/vdl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB528F6-FE91-7B49-BCC0-251CABF378F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA347C9-BBF9-554C-8BA5-519FBD88474A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27900" yWindow="17640" windowWidth="24800" windowHeight="23040" activeTab="1" xr2:uid="{A9B9088E-5DC3-BF46-BC4E-5904DC4F6054}"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="37600" windowHeight="23540" activeTab="1" xr2:uid="{A9B9088E-5DC3-BF46-BC4E-5904DC4F6054}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -6412,7 +6412,8 @@
   <cols>
     <col min="1" max="2" width="7.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.6640625" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
     <col min="6" max="6" width="26.83203125" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
